--- a/Team-Data/2012-13/11-29-2012-13.xlsx
+++ b/Team-Data/2012-13/11-29-2012-13.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,13 +811,13 @@
         <v>3.1</v>
       </c>
       <c r="AD2" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AE2" t="n">
         <v>7</v>
       </c>
       <c r="AF2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AG2" t="n">
         <v>7</v>
@@ -759,7 +826,7 @@
         <v>17</v>
       </c>
       <c r="AI2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AJ2" t="n">
         <v>17</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>11-29-2012-13</t>
+          <t>2012-11-29</t>
         </is>
       </c>
     </row>
@@ -926,10 +993,10 @@
         <v>-1.5</v>
       </c>
       <c r="AD3" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AE3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF3" t="n">
         <v>12</v>
@@ -941,7 +1008,7 @@
         <v>9</v>
       </c>
       <c r="AI3" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AJ3" t="n">
         <v>27</v>
@@ -962,7 +1029,7 @@
         <v>9</v>
       </c>
       <c r="AP3" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AQ3" t="n">
         <v>3</v>
@@ -998,7 +1065,7 @@
         <v>19</v>
       </c>
       <c r="BB3" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BC3" t="n">
         <v>19</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>11-29-2012-13</t>
+          <t>2012-11-29</t>
         </is>
       </c>
     </row>
@@ -1108,19 +1175,19 @@
         <v>4.9</v>
       </c>
       <c r="AD4" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AE4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AF4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AG4" t="n">
         <v>5</v>
       </c>
       <c r="AH4" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AI4" t="n">
         <v>20</v>
@@ -1135,7 +1202,7 @@
         <v>14</v>
       </c>
       <c r="AM4" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AN4" t="n">
         <v>22</v>
@@ -1159,7 +1226,7 @@
         <v>11</v>
       </c>
       <c r="AU4" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AV4" t="n">
         <v>4</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>11-29-2012-13</t>
+          <t>2012-11-29</t>
         </is>
       </c>
     </row>
@@ -1290,7 +1357,7 @@
         <v>-5.5</v>
       </c>
       <c r="AD5" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AE5" t="n">
         <v>14</v>
@@ -1299,7 +1366,7 @@
         <v>12</v>
       </c>
       <c r="AG5" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AH5" t="n">
         <v>3</v>
@@ -1314,13 +1381,13 @@
         <v>29</v>
       </c>
       <c r="AL5" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AM5" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AN5" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AO5" t="n">
         <v>3</v>
@@ -1344,7 +1411,7 @@
         <v>30</v>
       </c>
       <c r="AV5" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AW5" t="n">
         <v>4</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>11-29-2012-13</t>
+          <t>2012-11-29</t>
         </is>
       </c>
     </row>
@@ -1472,7 +1539,7 @@
         <v>2.2</v>
       </c>
       <c r="AD6" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AE6" t="n">
         <v>14</v>
@@ -1481,10 +1548,10 @@
         <v>12</v>
       </c>
       <c r="AG6" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AH6" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AI6" t="n">
         <v>21</v>
@@ -1508,7 +1575,7 @@
         <v>8</v>
       </c>
       <c r="AP6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AQ6" t="n">
         <v>4</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>11-29-2012-13</t>
+          <t>2012-11-29</t>
         </is>
       </c>
     </row>
@@ -1654,7 +1721,7 @@
         <v>-5.7</v>
       </c>
       <c r="AD7" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AE7" t="n">
         <v>28</v>
@@ -1678,7 +1745,7 @@
         <v>27</v>
       </c>
       <c r="AL7" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AM7" t="n">
         <v>6</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>11-29-2012-13</t>
+          <t>2012-11-29</t>
         </is>
       </c>
     </row>
@@ -1836,7 +1903,7 @@
         <v>-2.3</v>
       </c>
       <c r="AD8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE8" t="n">
         <v>14</v>
@@ -1848,7 +1915,7 @@
         <v>20</v>
       </c>
       <c r="AH8" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI8" t="n">
         <v>15</v>
@@ -1857,19 +1924,19 @@
         <v>18</v>
       </c>
       <c r="AK8" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AL8" t="n">
         <v>7</v>
       </c>
       <c r="AM8" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AN8" t="n">
         <v>5</v>
       </c>
       <c r="AO8" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP8" t="n">
         <v>17</v>
@@ -1881,13 +1948,13 @@
         <v>27</v>
       </c>
       <c r="AS8" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AT8" t="n">
         <v>21</v>
       </c>
       <c r="AU8" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AV8" t="n">
         <v>15</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>11-29-2012-13</t>
+          <t>2012-11-29</t>
         </is>
       </c>
     </row>
@@ -1940,22 +2007,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E9" t="n">
         <v>8</v>
       </c>
       <c r="F9" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G9" t="n">
-        <v>0.5</v>
+        <v>0.533</v>
       </c>
       <c r="H9" t="n">
-        <v>48.6</v>
+        <v>48.7</v>
       </c>
       <c r="I9" t="n">
-        <v>38.8</v>
+        <v>38.9</v>
       </c>
       <c r="J9" t="n">
         <v>85.3</v>
@@ -1964,76 +2031,76 @@
         <v>0.455</v>
       </c>
       <c r="L9" t="n">
-        <v>6.3</v>
+        <v>6</v>
       </c>
       <c r="M9" t="n">
-        <v>19</v>
+        <v>18.9</v>
       </c>
       <c r="N9" t="n">
-        <v>0.329</v>
+        <v>0.318</v>
       </c>
       <c r="O9" t="n">
-        <v>15.9</v>
+        <v>15.7</v>
       </c>
       <c r="P9" t="n">
-        <v>23.6</v>
+        <v>23.5</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.674</v>
+        <v>0.666</v>
       </c>
       <c r="R9" t="n">
-        <v>15.1</v>
+        <v>15.5</v>
       </c>
       <c r="S9" t="n">
-        <v>31.7</v>
+        <v>31.8</v>
       </c>
       <c r="T9" t="n">
-        <v>46.8</v>
+        <v>47.3</v>
       </c>
       <c r="U9" t="n">
-        <v>21.8</v>
+        <v>21.6</v>
       </c>
       <c r="V9" t="n">
-        <v>16.4</v>
+        <v>16.5</v>
       </c>
       <c r="W9" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="X9" t="n">
         <v>6.9</v>
       </c>
       <c r="Y9" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="Z9" t="n">
-        <v>19.6</v>
+        <v>19.9</v>
       </c>
       <c r="AA9" t="n">
-        <v>21.1</v>
+        <v>21</v>
       </c>
       <c r="AB9" t="n">
-        <v>99.8</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="AC9" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="AD9" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AE9" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF9" t="n">
         <v>12</v>
       </c>
-      <c r="AF9" t="n">
-        <v>16</v>
-      </c>
       <c r="AG9" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AH9" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AI9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AJ9" t="n">
         <v>3</v>
@@ -2042,13 +2109,13 @@
         <v>6</v>
       </c>
       <c r="AL9" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AM9" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AN9" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AO9" t="n">
         <v>23</v>
@@ -2057,25 +2124,25 @@
         <v>14</v>
       </c>
       <c r="AQ9" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AR9" t="n">
         <v>1</v>
       </c>
       <c r="AS9" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AT9" t="n">
         <v>2</v>
       </c>
       <c r="AU9" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AV9" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AW9" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AX9" t="n">
         <v>6</v>
@@ -2087,10 +2154,10 @@
         <v>12</v>
       </c>
       <c r="BA9" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BB9" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BC9" t="n">
         <v>12</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>11-29-2012-13</t>
+          <t>2012-11-29</t>
         </is>
       </c>
     </row>
@@ -2200,7 +2267,7 @@
         <v>-2.3</v>
       </c>
       <c r="AD10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE10" t="n">
         <v>24</v>
@@ -2233,7 +2300,7 @@
         <v>6</v>
       </c>
       <c r="AO10" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AP10" t="n">
         <v>8</v>
@@ -2260,16 +2327,16 @@
         <v>27</v>
       </c>
       <c r="AX10" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AY10" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AZ10" t="n">
         <v>16</v>
       </c>
       <c r="BA10" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BB10" t="n">
         <v>19</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>11-29-2012-13</t>
+          <t>2012-11-29</t>
         </is>
       </c>
     </row>
@@ -2304,121 +2371,121 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E11" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F11" t="n">
         <v>6</v>
       </c>
       <c r="G11" t="n">
-        <v>0.6</v>
+        <v>0.571</v>
       </c>
       <c r="H11" t="n">
-        <v>49</v>
+        <v>49.1</v>
       </c>
       <c r="I11" t="n">
-        <v>37.3</v>
+        <v>36.8</v>
       </c>
       <c r="J11" t="n">
-        <v>82.8</v>
+        <v>82.59999999999999</v>
       </c>
       <c r="K11" t="n">
-        <v>0.45</v>
+        <v>0.446</v>
       </c>
       <c r="L11" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="M11" t="n">
         <v>19.1</v>
       </c>
       <c r="N11" t="n">
-        <v>0.332</v>
+        <v>0.325</v>
       </c>
       <c r="O11" t="n">
-        <v>17.7</v>
+        <v>18.2</v>
       </c>
       <c r="P11" t="n">
-        <v>23.7</v>
+        <v>24.4</v>
       </c>
       <c r="Q11" t="n">
         <v>0.746</v>
       </c>
       <c r="R11" t="n">
-        <v>11.9</v>
+        <v>12.1</v>
       </c>
       <c r="S11" t="n">
         <v>33.9</v>
       </c>
       <c r="T11" t="n">
-        <v>45.7</v>
+        <v>45.9</v>
       </c>
       <c r="U11" t="n">
-        <v>21.7</v>
+        <v>21.1</v>
       </c>
       <c r="V11" t="n">
         <v>16.4</v>
       </c>
       <c r="W11" t="n">
-        <v>6.9</v>
+        <v>6.6</v>
       </c>
       <c r="X11" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="Y11" t="n">
         <v>6.3</v>
       </c>
       <c r="Z11" t="n">
-        <v>23.5</v>
+        <v>23.6</v>
       </c>
       <c r="AA11" t="n">
-        <v>21</v>
+        <v>21.4</v>
       </c>
       <c r="AB11" t="n">
-        <v>98.5</v>
+        <v>98</v>
       </c>
       <c r="AC11" t="n">
-        <v>-0.7</v>
+        <v>-0.8</v>
       </c>
       <c r="AD11" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="AE11" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AF11" t="n">
         <v>8</v>
       </c>
       <c r="AG11" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AH11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AI11" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="AJ11" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AK11" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AL11" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AM11" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AN11" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AO11" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AP11" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AQ11" t="n">
         <v>19</v>
@@ -2433,16 +2500,16 @@
         <v>4</v>
       </c>
       <c r="AU11" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AV11" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AW11" t="n">
         <v>26</v>
       </c>
       <c r="AX11" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AY11" t="n">
         <v>24</v>
@@ -2451,10 +2518,10 @@
         <v>27</v>
       </c>
       <c r="BA11" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="BB11" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="BC11" t="n">
         <v>15</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>11-29-2012-13</t>
+          <t>2012-11-29</t>
         </is>
       </c>
     </row>
@@ -2564,13 +2631,13 @@
         <v>0.6</v>
       </c>
       <c r="AD12" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AE12" t="n">
         <v>14</v>
       </c>
       <c r="AF12" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AG12" t="n">
         <v>17</v>
@@ -2633,7 +2700,7 @@
         <v>8</v>
       </c>
       <c r="BA12" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BB12" t="n">
         <v>5</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>11-29-2012-13</t>
+          <t>2012-11-29</t>
         </is>
       </c>
     </row>
@@ -2746,19 +2813,19 @@
         <v>-0.8</v>
       </c>
       <c r="AD13" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AE13" t="n">
         <v>14</v>
       </c>
       <c r="AF13" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AG13" t="n">
         <v>17</v>
       </c>
       <c r="AH13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AI13" t="n">
         <v>29</v>
@@ -2776,7 +2843,7 @@
         <v>13</v>
       </c>
       <c r="AN13" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AO13" t="n">
         <v>18</v>
@@ -2815,7 +2882,7 @@
         <v>7</v>
       </c>
       <c r="BA13" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BB13" t="n">
         <v>29</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>11-29-2012-13</t>
+          <t>2012-11-29</t>
         </is>
       </c>
     </row>
@@ -2928,7 +2995,7 @@
         <v>4.1</v>
       </c>
       <c r="AD14" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AE14" t="n">
         <v>7</v>
@@ -2943,7 +3010,7 @@
         <v>24</v>
       </c>
       <c r="AI14" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AJ14" t="n">
         <v>26</v>
@@ -2964,7 +3031,7 @@
         <v>10</v>
       </c>
       <c r="AP14" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AQ14" t="n">
         <v>14</v>
@@ -2979,7 +3046,7 @@
         <v>26</v>
       </c>
       <c r="AU14" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AV14" t="n">
         <v>25</v>
@@ -2997,10 +3064,10 @@
         <v>30</v>
       </c>
       <c r="BA14" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BB14" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BC14" t="n">
         <v>7</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>11-29-2012-13</t>
+          <t>2012-11-29</t>
         </is>
       </c>
     </row>
@@ -3110,13 +3177,13 @@
         <v>3.7</v>
       </c>
       <c r="AD15" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AE15" t="n">
         <v>14</v>
       </c>
       <c r="AF15" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AG15" t="n">
         <v>17</v>
@@ -3134,7 +3201,7 @@
         <v>8</v>
       </c>
       <c r="AL15" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AM15" t="n">
         <v>7</v>
@@ -3149,7 +3216,7 @@
         <v>1</v>
       </c>
       <c r="AQ15" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AR15" t="n">
         <v>8</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>11-29-2012-13</t>
+          <t>2012-11-29</t>
         </is>
       </c>
     </row>
@@ -3292,7 +3359,7 @@
         <v>8.5</v>
       </c>
       <c r="AD16" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AE16" t="n">
         <v>3</v>
@@ -3307,13 +3374,13 @@
         <v>26</v>
       </c>
       <c r="AI16" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ16" t="n">
         <v>15</v>
       </c>
       <c r="AK16" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AL16" t="n">
         <v>23</v>
@@ -3343,10 +3410,10 @@
         <v>16</v>
       </c>
       <c r="AU16" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AV16" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AW16" t="n">
         <v>2</v>
@@ -3364,7 +3431,7 @@
         <v>3</v>
       </c>
       <c r="BB16" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BC16" t="n">
         <v>2</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>11-29-2012-13</t>
+          <t>2012-11-29</t>
         </is>
       </c>
     </row>
@@ -3396,73 +3463,73 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E17" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F17" t="n">
         <v>3</v>
       </c>
       <c r="G17" t="n">
-        <v>0.786</v>
+        <v>0.769</v>
       </c>
       <c r="H17" t="n">
         <v>48.4</v>
       </c>
       <c r="I17" t="n">
-        <v>39</v>
+        <v>38.8</v>
       </c>
       <c r="J17" t="n">
-        <v>79</v>
+        <v>78.5</v>
       </c>
       <c r="K17" t="n">
         <v>0.494</v>
       </c>
       <c r="L17" t="n">
-        <v>8.800000000000001</v>
+        <v>9.1</v>
       </c>
       <c r="M17" t="n">
-        <v>20.4</v>
+        <v>21</v>
       </c>
       <c r="N17" t="n">
-        <v>0.43</v>
+        <v>0.432</v>
       </c>
       <c r="O17" t="n">
-        <v>18</v>
+        <v>18.2</v>
       </c>
       <c r="P17" t="n">
-        <v>23.7</v>
+        <v>24.1</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.759</v>
+        <v>0.754</v>
       </c>
       <c r="R17" t="n">
-        <v>8.4</v>
+        <v>8.5</v>
       </c>
       <c r="S17" t="n">
-        <v>31</v>
+        <v>31.1</v>
       </c>
       <c r="T17" t="n">
-        <v>39.4</v>
+        <v>39.6</v>
       </c>
       <c r="U17" t="n">
-        <v>23.4</v>
+        <v>23.5</v>
       </c>
       <c r="V17" t="n">
-        <v>14.1</v>
+        <v>14.5</v>
       </c>
       <c r="W17" t="n">
-        <v>7.5</v>
+        <v>7.2</v>
       </c>
       <c r="X17" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="Y17" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="Z17" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="AA17" t="n">
         <v>20.8</v>
@@ -3474,22 +3541,22 @@
         <v>4.5</v>
       </c>
       <c r="AD17" t="n">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="AE17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AF17" t="n">
         <v>2</v>
       </c>
       <c r="AG17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AH17" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AI17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AJ17" t="n">
         <v>25</v>
@@ -3501,19 +3568,19 @@
         <v>3</v>
       </c>
       <c r="AM17" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AN17" t="n">
         <v>1</v>
       </c>
       <c r="AO17" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AP17" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AQ17" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AR17" t="n">
         <v>29</v>
@@ -3522,25 +3589,25 @@
         <v>11</v>
       </c>
       <c r="AT17" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AU17" t="n">
         <v>4</v>
       </c>
       <c r="AV17" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AW17" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AX17" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AY17" t="n">
         <v>3</v>
       </c>
       <c r="AZ17" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BA17" t="n">
         <v>14</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>11-29-2012-13</t>
+          <t>2012-11-29</t>
         </is>
       </c>
     </row>
@@ -3656,7 +3723,7 @@
         <v>-0.2</v>
       </c>
       <c r="AD18" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AE18" t="n">
         <v>14</v>
@@ -3710,7 +3777,7 @@
         <v>2</v>
       </c>
       <c r="AV18" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AW18" t="n">
         <v>10</v>
@@ -3728,7 +3795,7 @@
         <v>27</v>
       </c>
       <c r="BB18" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BC18" t="n">
         <v>14</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>11-29-2012-13</t>
+          <t>2012-11-29</t>
         </is>
       </c>
     </row>
@@ -3838,13 +3905,13 @@
         <v>-0.9</v>
       </c>
       <c r="AD19" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AE19" t="n">
         <v>22</v>
       </c>
       <c r="AF19" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AG19" t="n">
         <v>22</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>11-29-2012-13</t>
+          <t>2012-11-29</t>
         </is>
       </c>
     </row>
@@ -4020,7 +4087,7 @@
         <v>-5.8</v>
       </c>
       <c r="AD20" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AE20" t="n">
         <v>26</v>
@@ -4071,10 +4138,10 @@
         <v>22</v>
       </c>
       <c r="AU20" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AV20" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AW20" t="n">
         <v>30</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>11-29-2012-13</t>
+          <t>2012-11-29</t>
         </is>
       </c>
     </row>
@@ -4202,25 +4269,25 @@
         <v>7.4</v>
       </c>
       <c r="AD21" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AE21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AF21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AG21" t="n">
         <v>5</v>
       </c>
       <c r="AH21" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AI21" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AJ21" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AK21" t="n">
         <v>9</v>
@@ -4277,7 +4344,7 @@
         <v>4</v>
       </c>
       <c r="BC21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BD21" t="n">
         <v>10</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>11-29-2012-13</t>
+          <t>2012-11-29</t>
         </is>
       </c>
     </row>
@@ -4384,22 +4451,22 @@
         <v>9</v>
       </c>
       <c r="AD22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE22" t="n">
         <v>2</v>
       </c>
       <c r="AF22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AG22" t="n">
         <v>4</v>
       </c>
       <c r="AH22" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI22" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AJ22" t="n">
         <v>30</v>
@@ -4441,7 +4508,7 @@
         <v>28</v>
       </c>
       <c r="AW22" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AX22" t="n">
         <v>2</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>11-29-2012-13</t>
+          <t>2012-11-29</t>
         </is>
       </c>
     </row>
@@ -4566,7 +4633,7 @@
         <v>-4.8</v>
       </c>
       <c r="AD23" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AE23" t="n">
         <v>24</v>
@@ -4578,7 +4645,7 @@
         <v>24</v>
       </c>
       <c r="AH23" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AI23" t="n">
         <v>16</v>
@@ -4617,7 +4684,7 @@
         <v>8</v>
       </c>
       <c r="AU23" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AV23" t="n">
         <v>21</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>11-29-2012-13</t>
+          <t>2012-11-29</t>
         </is>
       </c>
     </row>
@@ -4748,7 +4815,7 @@
         <v>-1</v>
       </c>
       <c r="AD24" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AE24" t="n">
         <v>7</v>
@@ -4787,7 +4854,7 @@
         <v>27</v>
       </c>
       <c r="AQ24" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AR24" t="n">
         <v>23</v>
@@ -4799,13 +4866,13 @@
         <v>17</v>
       </c>
       <c r="AU24" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AV24" t="n">
         <v>2</v>
       </c>
       <c r="AW24" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AX24" t="n">
         <v>10</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>11-29-2012-13</t>
+          <t>2012-11-29</t>
         </is>
       </c>
     </row>
@@ -4930,7 +4997,7 @@
         <v>-4.1</v>
       </c>
       <c r="AD25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE25" t="n">
         <v>14</v>
@@ -4942,7 +5009,7 @@
         <v>20</v>
       </c>
       <c r="AH25" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI25" t="n">
         <v>5</v>
@@ -4954,7 +5021,7 @@
         <v>16</v>
       </c>
       <c r="AL25" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AM25" t="n">
         <v>24</v>
@@ -5002,7 +5069,7 @@
         <v>21</v>
       </c>
       <c r="BB25" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BC25" t="n">
         <v>23</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>11-29-2012-13</t>
+          <t>2012-11-29</t>
         </is>
       </c>
     </row>
@@ -5112,7 +5179,7 @@
         <v>-3.7</v>
       </c>
       <c r="AD26" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AE26" t="n">
         <v>22</v>
@@ -5142,7 +5209,7 @@
         <v>3</v>
       </c>
       <c r="AN26" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AO26" t="n">
         <v>20</v>
@@ -5166,7 +5233,7 @@
         <v>26</v>
       </c>
       <c r="AV26" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AW26" t="n">
         <v>9</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>11-29-2012-13</t>
+          <t>2012-11-29</t>
         </is>
       </c>
     </row>
@@ -5294,7 +5361,7 @@
         <v>-5.1</v>
       </c>
       <c r="AD27" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AE27" t="n">
         <v>26</v>
@@ -5309,7 +5376,7 @@
         <v>7</v>
       </c>
       <c r="AI27" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AJ27" t="n">
         <v>5</v>
@@ -5342,7 +5409,7 @@
         <v>28</v>
       </c>
       <c r="AT27" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AU27" t="n">
         <v>29</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>11-29-2012-13</t>
+          <t>2012-11-29</t>
         </is>
       </c>
     </row>
@@ -5398,82 +5465,82 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E28" t="n">
         <v>13</v>
       </c>
       <c r="F28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G28" t="n">
-        <v>0.765</v>
+        <v>0.8129999999999999</v>
       </c>
       <c r="H28" t="n">
         <v>48.6</v>
       </c>
       <c r="I28" t="n">
-        <v>39.1</v>
+        <v>39.3</v>
       </c>
       <c r="J28" t="n">
-        <v>81.7</v>
+        <v>81.8</v>
       </c>
       <c r="K28" t="n">
-        <v>0.479</v>
+        <v>0.481</v>
       </c>
       <c r="L28" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="M28" t="n">
-        <v>21.4</v>
+        <v>20.8</v>
       </c>
       <c r="N28" t="n">
-        <v>0.372</v>
+        <v>0.375</v>
       </c>
       <c r="O28" t="n">
-        <v>16.2</v>
+        <v>16.1</v>
       </c>
       <c r="P28" t="n">
-        <v>21.1</v>
+        <v>20.9</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.771</v>
+        <v>0.772</v>
       </c>
       <c r="R28" t="n">
-        <v>8.9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="S28" t="n">
-        <v>32.1</v>
+        <v>32</v>
       </c>
       <c r="T28" t="n">
-        <v>41.1</v>
+        <v>40.8</v>
       </c>
       <c r="U28" t="n">
-        <v>24.5</v>
+        <v>24.7</v>
       </c>
       <c r="V28" t="n">
-        <v>15.1</v>
+        <v>14.8</v>
       </c>
       <c r="W28" t="n">
-        <v>8.1</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="X28" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="Y28" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="Z28" t="n">
-        <v>17.8</v>
+        <v>17.7</v>
       </c>
       <c r="AA28" t="n">
-        <v>19.2</v>
+        <v>19.3</v>
       </c>
       <c r="AB28" t="n">
-        <v>102.4</v>
+        <v>102.6</v>
       </c>
       <c r="AC28" t="n">
-        <v>6.8</v>
+        <v>7.5</v>
       </c>
       <c r="AD28" t="n">
         <v>1</v>
@@ -5482,31 +5549,31 @@
         <v>1</v>
       </c>
       <c r="AF28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AG28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AH28" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AI28" t="n">
         <v>2</v>
       </c>
       <c r="AJ28" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AK28" t="n">
         <v>3</v>
       </c>
       <c r="AL28" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AM28" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AN28" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AO28" t="n">
         <v>22</v>
@@ -5515,7 +5582,7 @@
         <v>23</v>
       </c>
       <c r="AQ28" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AR28" t="n">
         <v>28</v>
@@ -5524,34 +5591,34 @@
         <v>7</v>
       </c>
       <c r="AT28" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AU28" t="n">
         <v>1</v>
       </c>
       <c r="AV28" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AW28" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AX28" t="n">
+        <v>18</v>
+      </c>
+      <c r="AY28" t="n">
         <v>19</v>
-      </c>
-      <c r="AY28" t="n">
-        <v>16</v>
       </c>
       <c r="AZ28" t="n">
         <v>1</v>
       </c>
       <c r="BA28" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="BB28" t="n">
         <v>3</v>
       </c>
       <c r="BC28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BD28" t="n">
         <v>10</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>11-29-2012-13</t>
+          <t>2012-11-29</t>
         </is>
       </c>
     </row>
@@ -5658,7 +5725,7 @@
         <v>-5.6</v>
       </c>
       <c r="AD29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE29" t="n">
         <v>28</v>
@@ -5685,13 +5752,13 @@
         <v>13</v>
       </c>
       <c r="AM29" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AN29" t="n">
         <v>19</v>
       </c>
       <c r="AO29" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AP29" t="n">
         <v>17</v>
@@ -5706,7 +5773,7 @@
         <v>22</v>
       </c>
       <c r="AT29" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AU29" t="n">
         <v>22</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>11-29-2012-13</t>
+          <t>2012-11-29</t>
         </is>
       </c>
     </row>
@@ -5840,7 +5907,7 @@
         <v>1.2</v>
       </c>
       <c r="AD30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE30" t="n">
         <v>7</v>
@@ -5858,7 +5925,7 @@
         <v>18</v>
       </c>
       <c r="AJ30" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AK30" t="n">
         <v>23</v>
@@ -5879,7 +5946,7 @@
         <v>4</v>
       </c>
       <c r="AQ30" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AR30" t="n">
         <v>2</v>
@@ -5903,7 +5970,7 @@
         <v>4</v>
       </c>
       <c r="AY30" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AZ30" t="n">
         <v>24</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>11-29-2012-13</t>
+          <t>2012-11-29</t>
         </is>
       </c>
     </row>
@@ -6022,7 +6089,7 @@
         <v>-7.4</v>
       </c>
       <c r="AD31" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AE31" t="n">
         <v>30</v>
@@ -6082,16 +6149,16 @@
         <v>8</v>
       </c>
       <c r="AX31" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AY31" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AZ31" t="n">
         <v>25</v>
       </c>
       <c r="BA31" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BB31" t="n">
         <v>30</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>11-29-2012-13</t>
+          <t>2012-11-29</t>
         </is>
       </c>
     </row>
